--- a/pass.xlsx
+++ b/pass.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">BRANCH_CODE </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">BRANCH_NAME </t>
   </si>
@@ -30,43 +27,22 @@
     <t xml:space="preserve">PASSWORD </t>
   </si>
   <si>
-    <t>1-008</t>
-  </si>
-  <si>
     <t>فرع ابو المطامير</t>
   </si>
   <si>
-    <t>1-001</t>
-  </si>
-  <si>
     <t>فرع اسيوط</t>
   </si>
   <si>
-    <t>1-004</t>
-  </si>
-  <si>
     <t>فرع الاسكندرية</t>
   </si>
   <si>
-    <t>1-006</t>
-  </si>
-  <si>
     <t>فرع الاقصر</t>
   </si>
   <si>
-    <t>1-005</t>
-  </si>
-  <si>
     <t>فرع المنيا</t>
   </si>
   <si>
-    <t>1-002</t>
-  </si>
-  <si>
     <t>فرع سوهاج</t>
-  </si>
-  <si>
-    <t>1-003</t>
   </si>
   <si>
     <t>فرع قنا</t>
@@ -76,19 +52,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,9 +81,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,104 +363,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B6">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
+      <c r="B8">
         <v>852</v>
       </c>
     </row>

--- a/pass.xlsx
+++ b/pass.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">BRANCH_NAME </t>
   </si>
@@ -46,6 +46,27 @@
   </si>
   <si>
     <t>فرع قنا</t>
+  </si>
+  <si>
+    <t>abw@matamir24</t>
+  </si>
+  <si>
+    <t>asyut@nile46</t>
+  </si>
+  <si>
+    <t>askndrya@med79</t>
+  </si>
+  <si>
+    <t>aqsur@phara32</t>
+  </si>
+  <si>
+    <t>minya@upper65</t>
+  </si>
+  <si>
+    <t>sohag@south98</t>
+  </si>
+  <si>
+    <t>qena@valley85</t>
   </si>
 </sst>
 </file>
@@ -366,13 +387,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -387,59 +408,60 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>123</v>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>456</v>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>789</v>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>321</v>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>654</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>987</v>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>852</v>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>